--- a/runtime/results/scaling_bgq/bgq.xlsx
+++ b/runtime/results/scaling_bgq/bgq.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="19020" windowHeight="11895"/>
   </bookViews>
   <sheets>
-    <sheet name="Chart1" sheetId="4" r:id="rId1"/>
-    <sheet name="Chart2" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
+    <sheet name="Chart1 (2)" sheetId="7" r:id="rId1"/>
+    <sheet name="Chart1" sheetId="4" r:id="rId2"/>
+    <sheet name="Chart2" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="bgq_cores" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="13">
   <si>
     <t>memcpy aligned</t>
   </si>
@@ -31,12 +31,39 @@
   <si>
     <t>scrmfs</t>
   </si>
+  <si>
+    <t>memcpy_1</t>
+  </si>
+  <si>
+    <t>memcpy</t>
+  </si>
+  <si>
+    <t>AggGBps</t>
+  </si>
+  <si>
+    <t>AvgMBps</t>
+  </si>
+  <si>
+    <t>MaxMBps</t>
+  </si>
+  <si>
+    <t>MinMBps</t>
+  </si>
+  <si>
+    <t>Nodes</t>
+  </si>
+  <si>
+    <t>PPN</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,12 +100,27 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -87,40 +129,43 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2000"/>
+              <a:defRPr sz="2400"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="2000"/>
+              <a:rPr lang="en-US" sz="2400"/>
               <a:t>Single-node scaling</a:t>
             </a:r>
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2000"/>
+              <a:defRPr sz="2400"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="2000"/>
-              <a:t>100 MB file, 100 times, 16 MB chunks</a:t>
+              <a:rPr lang="en-US" sz="2400"/>
+              <a:t>50 MB file, 10 times, 4 MB chunks</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10919705297874217"/>
+          <c:x val="0.14876182197203652"/>
           <c:y val="0.13922187161365074"/>
-          <c:w val="0.85627088676862573"/>
+          <c:w val="0.81670619871885919"/>
           <c:h val="0.74269391426427722"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -135,12 +180,33 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$22</c:f>
+              <c:f>bgq_cores!$B$66:$B$129</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -193,85 +259,346 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$22</c:f>
+              <c:f>bgq_cores!$G$66:$G$129</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
-                  <c:v>7382</c:v>
+                  <c:v>7.2325781249999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11620</c:v>
+                  <c:v>11.457119140625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12649</c:v>
+                  <c:v>12.581044921875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13026</c:v>
+                  <c:v>12.628173828125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12986</c:v>
+                  <c:v>12.7875</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13120</c:v>
+                  <c:v>12.8273046875</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13057</c:v>
+                  <c:v>12.744101562499999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13081</c:v>
+                  <c:v>12.683134765625001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13137</c:v>
+                  <c:v>12.915126953125</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13138</c:v>
+                  <c:v>12.935898437500001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13134</c:v>
+                  <c:v>12.93904296875</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13051</c:v>
+                  <c:v>12.910273437500001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13029</c:v>
+                  <c:v>12.886337890625001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13070</c:v>
+                  <c:v>12.916435546875</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13217</c:v>
+                  <c:v>12.904052734375</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>13235</c:v>
+                  <c:v>12.918623046875</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.050068359375</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>13006</c:v>
+                  <c:v>12.864765625</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>13021</c:v>
+                  <c:v>13.074970703125</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>13039</c:v>
+                  <c:v>12.85677734375</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>13058</c:v>
+                  <c:v>13.091650390625</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12.85515625</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13.108671875000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12.871455078125001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>13.079453125000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12.863125</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13.11408203125</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12.878291015625001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>13.119970703125</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12.869873046875</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>13.1175</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>12.8728125</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>13.432041015625</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13.525849609374999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13.23015625</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>12.896601562500001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>13.398974609374999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>13.489384765624999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>13.202851562499999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>12.89802734375</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>13.413330078125</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>13.445087890625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>13.17904296875</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>12.900917968750001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>13.408076171875001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>13.408251953124999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>13.157744140625001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>12.902607421875</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>13.387314453125001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>13.37703125</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>13.140400390625</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>12.9030859375</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>13.354111328125001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>13.34197265625</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>13.112333984375001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>12.906054687499999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>13.3605859375</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>13.320625</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>13.112500000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>12.90732421875</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>13.3453125</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>13.2802734375</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>13.101044921874999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>12.906542968749999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -292,6 +619,1815 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="28575">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>bgq_cores!$B$66:$B$129</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>bgq_cores!$G$194:$G$257</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>0.42491210937500001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84969726562500003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2745605468750001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6993554687500001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1243457031249999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5492187500000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.9732226562499999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3979980468750002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.8224804687499998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.2476464843750001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.6723046874999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.09615234375</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.5203320312499997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.9444531249999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.3691699218749998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.7929394531250002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.7143750000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.0733593749999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.4970019531250003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.85892578125</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.2823242187500004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.6416699218749997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.0638671874999996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.4217382812500006</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.8456640624999991</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10.196787109375</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10.601113281250001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10.959833984375001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11.36720703125</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11.697128906250001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>12.025253906250001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>12.287841796875</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.2250097656249999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.5778906250000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.8020703124999997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.9008691406249998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10.32478515625</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10.684716796875</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10.900400390625</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10.999482421874999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>11.418183593749999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>11.760380859374999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>11.949267578124999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>12.028857421874999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>12.335253906249999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>12.501250000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>12.461562499999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>12.297509765625</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>12.299990234375</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>12.306923828125001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>12.053544921875</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>11.54435546875</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>11.570761718749999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>11.689580078124999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>11.375712890625</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>10.85056640625</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>10.935283203125</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>11.11125</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>10.827080078125</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>10.3165625</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>10.465791015624999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>10.670478515625</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>10.387255859374999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>9.8832031249999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>CRUISE</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:ln w="28575"/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>bgq_cores!$B$66:$B$129</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>bgq_cores!$G$130:$G$257</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="128"/>
+                <c:pt idx="0">
+                  <c:v>0.43624023437499998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87239257812500004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3069628906249999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7452441406250001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.9223535156249998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.3582031250000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.7946679687499998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.2296289062500003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.6654980468750002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.1013085937499998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.5368847656250004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.9717089843749998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.6986425781249999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.0399218750000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.4810351562499999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.8262890624999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.2576855468750008</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.6042382812499998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.0392480468750005</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.3831445312500001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.8133691406249994</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10.156874999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10.589404296874999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10.929775390625</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11.354228515625</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11.676220703125001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>12.067099609374999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>12.301337890625</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.2380273437499998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.5839648437499996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.8134863281250002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.9032617187500005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10.33787109375</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10.683144531250001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10.91228515625</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>11.432080078125001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>11.758583984375001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>11.961386718749999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>12.00505859375</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>12.350751953125</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>12.470097656249999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>12.439072265625001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>12.246806640625</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>12.3192578125</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>12.27939453125</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>11.974423828125</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>11.490322265625</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>11.58892578125</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>11.601210937499999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>11.27875</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>10.763251953125</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>11.0262890625</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>10.713837890624999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>10.223466796875</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>10.460498046874999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>10.56935546875</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>10.261269531250001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>9.7849707031249995</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.42491210937500001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.84969726562500003</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.2745605468750001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.6993554687500001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.1243457031249999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.5492187500000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.9732226562499999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.3979980468750002</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.8224804687499998</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4.2476464843750001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4.6723046874999996</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5.09615234375</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5.5203320312499997</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5.9444531249999999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>6.3691699218749998</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>6.7929394531250002</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6.7143750000000004</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>7.0733593749999999</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>7.4970019531250003</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>7.85892578125</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.2823242187500004</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.6416699218749997</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>9.0638671874999996</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>9.4217382812500006</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>9.8456640624999991</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>10.196787109375</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>10.601113281250001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>10.959833984375001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>11.36720703125</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>11.697128906250001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>12.025253906250001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>12.287841796875</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.2250097656249999</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.5778906250000002</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.8020703124999997</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.9008691406249998</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10.32478515625</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>10.684716796875</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>10.900400390625</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>10.999482421874999</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>11.418183593749999</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>11.760380859374999</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>11.949267578124999</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>12.028857421874999</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>12.335253906249999</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>12.501250000000001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>12.461562499999999</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>12.297509765625</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>12.299990234375</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>12.306923828125001</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>12.053544921875</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>11.54435546875</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>11.570761718749999</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>11.689580078124999</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>11.375712890625</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>10.85056640625</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>10.935283203125</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>11.11125</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>10.827080078125</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>10.3165625</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>10.465791015624999</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>10.670478515625</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>10.387255859374999</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>9.8832031249999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ramdisk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>bgq_cores!$B$66:$B$129</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>bgq_cores!$G$2:$G$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>0.52298828124999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.50554687499999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.50562499999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56647460937500005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.57341796874999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.56943359375000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.62162109374999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.58826171875</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.59173828125000005</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.64351562500000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.59334960937500003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.59945312500000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.60702148437500003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.66212890624999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.52505859374999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.71328124999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.561650390625</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.68706054687499996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.54316406250000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.91208007812500003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.53987304687500004</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.69575195312500004</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.61191406250000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.63155273437500004</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.58150390625000004</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.65862304687499995</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.58644531249999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.77037109375000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.62083007812500002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.52431640624999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.47740234375000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.61330078124999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.67756835937500004</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.72626953125000004</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.60465820312499996</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.76988281250000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.5537109375</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.63957031249999996</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.53759765625</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.58670898437499996</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.55145507812500005</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.505498046875</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.6876171875</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.65791992187500004</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.56463867187500005</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.54864257812499995</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.62601562499999996</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.78236328124999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.59268554687499997</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.63648437499999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.53953125000000002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.62446289062500004</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.66388671875000005</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.64113281249999998</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.55925781249999995</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.70421875</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.59869140624999995</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.51340820312500002</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.77235351562499999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="83124992"/>
+        <c:axId val="83127296"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="83124992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400"/>
+                  <a:t>Cores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="83127296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="83127296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400"/>
+                  <a:t>GB/s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="83124992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400"/>
+              <a:t>Single-node scaling</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400"/>
+              <a:t>100 MB file, 100 times, 16 MB chunks</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14876182197203652"/>
+          <c:y val="0.13922187161365074"/>
+          <c:w val="0.81670619871885919"/>
+          <c:h val="0.74269391426427722"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>memcpy aligned</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:ln w="25400"/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>7382</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11620</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12649</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13026</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12986</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13120</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13057</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13081</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13137</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13138</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13134</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13051</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13029</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13070</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13217</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13235</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13006</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13021</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13039</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13058</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>memcpy unaligned</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:ln w="28575"/>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$22</c:f>
@@ -452,6 +2588,13 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:ln w="28575"/>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$22</c:f>
@@ -573,6 +2716,13 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:ln w="28575"/>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$22</c:f>
@@ -719,14 +2869,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="80585472"/>
-        <c:axId val="80587776"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="80512896"/>
+        <c:axId val="80519168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80585472"/>
+        <c:axId val="80512896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -735,28 +2894,42 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="2000"/>
+                  <a:defRPr sz="2400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="2000"/>
+                  <a:rPr lang="en-US" sz="2400"/>
                   <a:t>Cores</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80587776"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="80519168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80587776"/>
+        <c:axId val="80519168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -766,20 +2939,33 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="2000"/>
+                  <a:defRPr sz="2400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="2000"/>
+                  <a:rPr lang="en-US" sz="2400"/>
                   <a:t>MB/s</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80585472"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="80512896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -787,25 +2973,38 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2000"/>
+            <a:defRPr sz="1800"/>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -823,11 +3022,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -878,15 +3080,25 @@
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="77418496"/>
-        <c:axId val="87610496"/>
+        <c:smooth val="0"/>
+        <c:axId val="80528896"/>
+        <c:axId val="80530816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77418496"/>
+        <c:axId val="80528896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -904,21 +3116,26 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87610496"/>
+        <c:crossAx val="80530816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87610496"/>
+        <c:axId val="80530816"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -937,18 +3154,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77418496"/>
+        <c:crossAx val="80528896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
 </c:chartSpace>
 </file>
@@ -957,7 +3180,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -966,6 +3189,18 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="101" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
@@ -980,7 +3215,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8669364" cy="6288114"/>
+    <xdr:ext cx="8666807" cy="6290272"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -1004,6 +3239,33 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8666807" cy="6290272"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -1105,6 +3367,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1139,6 +3402,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1314,16 +3578,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1337,7 +3601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1354,7 +3618,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1371,7 +3635,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1388,7 +3652,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1405,7 +3669,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1422,7 +3686,7 @@
         <v>2236</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1439,7 +3703,7 @@
         <v>2682</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1456,7 +3720,7 @@
         <v>3230</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1473,7 +3737,7 @@
         <v>3580</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1487,7 +3751,7 @@
         <v>4028</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1501,7 +3765,7 @@
         <v>4472</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1515,7 +3779,7 @@
         <v>4918</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1529,7 +3793,7 @@
         <v>5366</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1543,7 +3807,7 @@
         <v>5813</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1557,7 +3821,7 @@
         <v>6259</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1571,7 +3835,7 @@
         <v>6707</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1585,7 +3849,7 @@
         <v>7153</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1596,7 +3860,7 @@
         <v>6876</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>20</v>
       </c>
@@ -1610,7 +3874,7 @@
         <v>8030</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>24</v>
       </c>
@@ -1624,7 +3888,7 @@
         <v>9625</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>28</v>
       </c>
@@ -1638,7 +3902,7 @@
         <v>11216</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>32</v>
       </c>
@@ -1652,7 +3916,7 @@
         <v>12698</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1660,7 +3924,7 @@
         <v>12698</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -1668,7 +3932,7 @@
         <v>25416</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>4</v>
       </c>
@@ -1676,7 +3940,7 @@
         <v>50813</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>8</v>
       </c>
@@ -1690,25 +3954,5674 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G257"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="B196" sqref="B196"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>535.54</v>
+      </c>
+      <c r="E2">
+        <v>535.54</v>
+      </c>
+      <c r="F2">
+        <v>535.54</v>
+      </c>
+      <c r="G2">
+        <v>0.52298828124999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>258.83999999999997</v>
+      </c>
+      <c r="E3">
+        <v>258.83999999999997</v>
+      </c>
+      <c r="F3">
+        <v>258.83999999999997</v>
+      </c>
+      <c r="G3">
+        <v>0.50554687499999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>172.59</v>
+      </c>
+      <c r="E4">
+        <v>172.59</v>
+      </c>
+      <c r="F4">
+        <v>172.59</v>
+      </c>
+      <c r="G4">
+        <v>0.50562499999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>131.29</v>
+      </c>
+      <c r="E5">
+        <v>174.54</v>
+      </c>
+      <c r="F5">
+        <v>145.02000000000001</v>
+      </c>
+      <c r="G5">
+        <v>0.56647460937500005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>57.74</v>
+      </c>
+      <c r="E10">
+        <v>77.78</v>
+      </c>
+      <c r="F10">
+        <v>65.239999999999995</v>
+      </c>
+      <c r="G10">
+        <v>0.57341796874999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>52</v>
+      </c>
+      <c r="E11">
+        <v>70.81</v>
+      </c>
+      <c r="F11">
+        <v>58.31</v>
+      </c>
+      <c r="G11">
+        <v>0.56943359375000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>47.31</v>
+      </c>
+      <c r="E12">
+        <v>82.03</v>
+      </c>
+      <c r="F12">
+        <v>57.87</v>
+      </c>
+      <c r="G12">
+        <v>0.62162109374999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>40.03</v>
+      </c>
+      <c r="E14">
+        <v>64.98</v>
+      </c>
+      <c r="F14">
+        <v>46.34</v>
+      </c>
+      <c r="G14">
+        <v>0.58826171875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>37.1</v>
+      </c>
+      <c r="E15">
+        <v>55.66</v>
+      </c>
+      <c r="F15">
+        <v>43.28</v>
+      </c>
+      <c r="G15">
+        <v>0.59173828125000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>34.619999999999997</v>
+      </c>
+      <c r="E16">
+        <v>62.2</v>
+      </c>
+      <c r="F16">
+        <v>43.93</v>
+      </c>
+      <c r="G16">
+        <v>0.64351562500000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>32.42</v>
+      </c>
+      <c r="E17">
+        <v>53.61</v>
+      </c>
+      <c r="F17">
+        <v>37.97</v>
+      </c>
+      <c r="G17">
+        <v>0.59334960937500003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>27.99</v>
+      </c>
+      <c r="E18">
+        <v>96.15</v>
+      </c>
+      <c r="F18">
+        <v>36.11</v>
+      </c>
+      <c r="G18">
+        <v>0.59945312500000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>26.3</v>
+      </c>
+      <c r="E19">
+        <v>61.78</v>
+      </c>
+      <c r="F19">
+        <v>34.53</v>
+      </c>
+      <c r="G19">
+        <v>0.60702148437500003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>25.05</v>
+      </c>
+      <c r="E20">
+        <v>111.52</v>
+      </c>
+      <c r="F20">
+        <v>35.69</v>
+      </c>
+      <c r="G20">
+        <v>0.66212890624999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>23.67</v>
+      </c>
+      <c r="E21">
+        <v>33.82</v>
+      </c>
+      <c r="F21">
+        <v>26.88</v>
+      </c>
+      <c r="G21">
+        <v>0.52505859374999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>22.71</v>
+      </c>
+      <c r="E22">
+        <v>96.77</v>
+      </c>
+      <c r="F22">
+        <v>34.78</v>
+      </c>
+      <c r="G22">
+        <v>0.71328124999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>21.52</v>
+      </c>
+      <c r="E23">
+        <v>41.79</v>
+      </c>
+      <c r="F23">
+        <v>26.14</v>
+      </c>
+      <c r="G23">
+        <v>0.561650390625</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>20.64</v>
+      </c>
+      <c r="E24">
+        <v>84.67</v>
+      </c>
+      <c r="F24">
+        <v>30.59</v>
+      </c>
+      <c r="G24">
+        <v>0.68706054687499996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>19.72</v>
+      </c>
+      <c r="E25">
+        <v>33.79</v>
+      </c>
+      <c r="F25">
+        <v>23.17</v>
+      </c>
+      <c r="G25">
+        <v>0.54316406250000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="E26">
+        <v>76.14</v>
+      </c>
+      <c r="F26">
+        <v>37.36</v>
+      </c>
+      <c r="G26">
+        <v>0.91208007812500003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>18.21</v>
+      </c>
+      <c r="E27">
+        <v>26.75</v>
+      </c>
+      <c r="F27">
+        <v>21.26</v>
+      </c>
+      <c r="G27">
+        <v>0.53987304687500004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>17.61</v>
+      </c>
+      <c r="E28">
+        <v>65.48</v>
+      </c>
+      <c r="F28">
+        <v>26.39</v>
+      </c>
+      <c r="G28">
+        <v>0.69575195312500004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="E29">
+        <v>35.450000000000003</v>
+      </c>
+      <c r="F29">
+        <v>22.38</v>
+      </c>
+      <c r="G29">
+        <v>0.61191406250000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>16.41</v>
+      </c>
+      <c r="E30">
+        <v>96.76</v>
+      </c>
+      <c r="F30">
+        <v>22.3</v>
+      </c>
+      <c r="G30">
+        <v>0.63155273437500004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>15.78</v>
+      </c>
+      <c r="E31">
+        <v>39.43</v>
+      </c>
+      <c r="F31">
+        <v>19.850000000000001</v>
+      </c>
+      <c r="G31">
+        <v>0.58150390625000004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>15.35</v>
+      </c>
+      <c r="E32">
+        <v>85.3</v>
+      </c>
+      <c r="F32">
+        <v>21.76</v>
+      </c>
+      <c r="G32">
+        <v>0.65862304687499995</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>14.79</v>
+      </c>
+      <c r="E33">
+        <v>25.77</v>
+      </c>
+      <c r="F33">
+        <v>18.77</v>
+      </c>
+      <c r="G33">
+        <v>0.58644531249999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>9.9</v>
+      </c>
+      <c r="E34">
+        <v>197.64</v>
+      </c>
+      <c r="F34">
+        <v>23.9</v>
+      </c>
+      <c r="G34">
+        <v>0.77037109375000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>9.64</v>
+      </c>
+      <c r="E35">
+        <v>105.43</v>
+      </c>
+      <c r="F35">
+        <v>18.7</v>
+      </c>
+      <c r="G35">
+        <v>0.62083007812500002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>9.33</v>
+      </c>
+      <c r="E36">
+        <v>67.989999999999995</v>
+      </c>
+      <c r="F36">
+        <v>15.34</v>
+      </c>
+      <c r="G36">
+        <v>0.52431640624999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="E37">
+        <v>43.4</v>
+      </c>
+      <c r="F37">
+        <v>13.58</v>
+      </c>
+      <c r="G37">
+        <v>0.47740234375000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>8.83</v>
+      </c>
+      <c r="E38">
+        <v>80.14</v>
+      </c>
+      <c r="F38">
+        <v>16.97</v>
+      </c>
+      <c r="G38">
+        <v>0.61330078124999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>8.6</v>
+      </c>
+      <c r="E39">
+        <v>63.18</v>
+      </c>
+      <c r="F39">
+        <v>18.260000000000002</v>
+      </c>
+      <c r="G39">
+        <v>0.67756835937500004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="E40">
+        <v>59.79</v>
+      </c>
+      <c r="F40">
+        <v>19.07</v>
+      </c>
+      <c r="G40">
+        <v>0.72626953125000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="E41">
+        <v>43.28</v>
+      </c>
+      <c r="F41">
+        <v>15.48</v>
+      </c>
+      <c r="G41">
+        <v>0.60465820312499996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>7.93</v>
+      </c>
+      <c r="E42">
+        <v>138.96</v>
+      </c>
+      <c r="F42">
+        <v>19.23</v>
+      </c>
+      <c r="G42">
+        <v>0.76988281250000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>7.76</v>
+      </c>
+      <c r="E43">
+        <v>43.28</v>
+      </c>
+      <c r="F43">
+        <v>13.5</v>
+      </c>
+      <c r="G43">
+        <v>0.5537109375</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>7.61</v>
+      </c>
+      <c r="E44">
+        <v>63.45</v>
+      </c>
+      <c r="F44">
+        <v>15.23</v>
+      </c>
+      <c r="G44">
+        <v>0.63957031249999996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>7.36</v>
+      </c>
+      <c r="E45">
+        <v>32.65</v>
+      </c>
+      <c r="F45">
+        <v>12.51</v>
+      </c>
+      <c r="G45">
+        <v>0.53759765625</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>7.19</v>
+      </c>
+      <c r="E46">
+        <v>96.5</v>
+      </c>
+      <c r="F46">
+        <v>13.35</v>
+      </c>
+      <c r="G46">
+        <v>0.58670898437499996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>7.05</v>
+      </c>
+      <c r="E47">
+        <v>37.93</v>
+      </c>
+      <c r="F47">
+        <v>12.28</v>
+      </c>
+      <c r="G47">
+        <v>0.55145507812500005</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>6.91</v>
+      </c>
+      <c r="E48">
+        <v>27.02</v>
+      </c>
+      <c r="F48">
+        <v>11.01</v>
+      </c>
+      <c r="G48">
+        <v>0.505498046875</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>6.71</v>
+      </c>
+      <c r="E49">
+        <v>94.9</v>
+      </c>
+      <c r="F49">
+        <v>14.67</v>
+      </c>
+      <c r="G49">
+        <v>0.6876171875</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>6.71</v>
+      </c>
+      <c r="E50">
+        <v>162.32</v>
+      </c>
+      <c r="F50">
+        <v>13.75</v>
+      </c>
+      <c r="G50">
+        <v>0.65791992187500004</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>6.55</v>
+      </c>
+      <c r="E51">
+        <v>51.84</v>
+      </c>
+      <c r="F51">
+        <v>11.56</v>
+      </c>
+      <c r="G51">
+        <v>0.56463867187500005</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>6.41</v>
+      </c>
+      <c r="E52">
+        <v>35.19</v>
+      </c>
+      <c r="F52">
+        <v>11.02</v>
+      </c>
+      <c r="G52">
+        <v>0.54864257812499995</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53">
+        <v>52</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>6.17</v>
+      </c>
+      <c r="E53">
+        <v>36.43</v>
+      </c>
+      <c r="F53">
+        <v>12.33</v>
+      </c>
+      <c r="G53">
+        <v>0.62601562499999996</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54">
+        <v>53</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>6.12</v>
+      </c>
+      <c r="E54">
+        <v>138.88</v>
+      </c>
+      <c r="F54">
+        <v>15.12</v>
+      </c>
+      <c r="G54">
+        <v>0.78236328124999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55">
+        <v>54</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>6.06</v>
+      </c>
+      <c r="E55">
+        <v>32.81</v>
+      </c>
+      <c r="F55">
+        <v>11.24</v>
+      </c>
+      <c r="G55">
+        <v>0.59268554687499997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56">
+        <v>55</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>5.97</v>
+      </c>
+      <c r="E56">
+        <v>41.39</v>
+      </c>
+      <c r="F56">
+        <v>11.85</v>
+      </c>
+      <c r="G56">
+        <v>0.63648437499999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57">
+        <v>56</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>5.81</v>
+      </c>
+      <c r="E57">
+        <v>33.92</v>
+      </c>
+      <c r="F57">
+        <v>9.8699999999999992</v>
+      </c>
+      <c r="G57">
+        <v>0.53953125000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58">
+        <v>57</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>5.72</v>
+      </c>
+      <c r="E58">
+        <v>80.709999999999994</v>
+      </c>
+      <c r="F58">
+        <v>11.22</v>
+      </c>
+      <c r="G58">
+        <v>0.62446289062500004</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59">
+        <v>58</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>5.66</v>
+      </c>
+      <c r="E59">
+        <v>50.02</v>
+      </c>
+      <c r="F59">
+        <v>11.72</v>
+      </c>
+      <c r="G59">
+        <v>0.66388671875000005</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60">
+        <v>59</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>5.51</v>
+      </c>
+      <c r="E60">
+        <v>67.739999999999995</v>
+      </c>
+      <c r="F60">
+        <v>11.13</v>
+      </c>
+      <c r="G60">
+        <v>0.64113281249999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61">
+        <v>60</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>5.39</v>
+      </c>
+      <c r="E61">
+        <v>30.63</v>
+      </c>
+      <c r="F61">
+        <v>9.5399999999999991</v>
+      </c>
+      <c r="G61">
+        <v>0.55925781249999995</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62">
+        <v>61</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>5.38</v>
+      </c>
+      <c r="E62">
+        <v>64.349999999999994</v>
+      </c>
+      <c r="F62">
+        <v>11.82</v>
+      </c>
+      <c r="G62">
+        <v>0.70421875</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63">
+        <v>62</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>5.28</v>
+      </c>
+      <c r="E63">
+        <v>24.91</v>
+      </c>
+      <c r="F63">
+        <v>9.89</v>
+      </c>
+      <c r="G63">
+        <v>0.59869140624999995</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64">
+        <v>63</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>5.22</v>
+      </c>
+      <c r="E64">
+        <v>32.33</v>
+      </c>
+      <c r="F64">
+        <v>8.34</v>
+      </c>
+      <c r="G64">
+        <v>0.51340820312500002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>2</v>
+      </c>
+      <c r="B65">
+        <v>64</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>5.07</v>
+      </c>
+      <c r="E65">
+        <v>96.02</v>
+      </c>
+      <c r="F65">
+        <v>12.36</v>
+      </c>
+      <c r="G65">
+        <v>0.77235351562499999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>7406.16</v>
+      </c>
+      <c r="E66">
+        <v>7406.16</v>
+      </c>
+      <c r="F66">
+        <v>7406.16</v>
+      </c>
+      <c r="G66">
+        <v>7.2325781249999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>5864.63</v>
+      </c>
+      <c r="E67">
+        <v>5867.46</v>
+      </c>
+      <c r="F67">
+        <v>5866.04</v>
+      </c>
+      <c r="G67">
+        <v>11.457119140625</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68">
+        <v>3</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>4290.8</v>
+      </c>
+      <c r="E68">
+        <v>4299.8900000000003</v>
+      </c>
+      <c r="F68">
+        <v>4294.33</v>
+      </c>
+      <c r="G68">
+        <v>12.581044921875</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69">
+        <v>4</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>3231.74</v>
+      </c>
+      <c r="E69">
+        <v>3234.11</v>
+      </c>
+      <c r="F69">
+        <v>3232.81</v>
+      </c>
+      <c r="G69">
+        <v>12.628173828125</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70">
+        <v>5</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>2613.0300000000002</v>
+      </c>
+      <c r="E70">
+        <v>2622.39</v>
+      </c>
+      <c r="F70">
+        <v>2618.88</v>
+      </c>
+      <c r="G70">
+        <v>12.7875</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71">
+        <v>6</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>2187.7600000000002</v>
+      </c>
+      <c r="E71">
+        <v>2189.9499999999998</v>
+      </c>
+      <c r="F71">
+        <v>2189.19</v>
+      </c>
+      <c r="G71">
+        <v>12.8273046875</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72">
+        <v>7</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>1863.33</v>
+      </c>
+      <c r="E72">
+        <v>1865.05</v>
+      </c>
+      <c r="F72">
+        <v>1864.28</v>
+      </c>
+      <c r="G72">
+        <v>12.744101562499999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73">
+        <v>8</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>1621.99</v>
+      </c>
+      <c r="E73">
+        <v>1625.68</v>
+      </c>
+      <c r="F73">
+        <v>1623.44</v>
+      </c>
+      <c r="G73">
+        <v>12.683134765625001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74">
+        <v>9</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>1467.88</v>
+      </c>
+      <c r="E74">
+        <v>1471.25</v>
+      </c>
+      <c r="F74">
+        <v>1469.45</v>
+      </c>
+      <c r="G74">
+        <v>12.915126953125</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75">
+        <v>10</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>1322.32</v>
+      </c>
+      <c r="E75">
+        <v>1328.06</v>
+      </c>
+      <c r="F75">
+        <v>1324.64</v>
+      </c>
+      <c r="G75">
+        <v>12.935898437500001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76">
+        <v>11</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>1201.3</v>
+      </c>
+      <c r="E76">
+        <v>1212.18</v>
+      </c>
+      <c r="F76">
+        <v>1204.51</v>
+      </c>
+      <c r="G76">
+        <v>12.93904296875</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77">
+        <v>12</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>1100.26</v>
+      </c>
+      <c r="E77">
+        <v>1103.44</v>
+      </c>
+      <c r="F77">
+        <v>1101.68</v>
+      </c>
+      <c r="G77">
+        <v>12.910273437500001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78">
+        <v>13</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>1011.73</v>
+      </c>
+      <c r="E78">
+        <v>1017.12</v>
+      </c>
+      <c r="F78">
+        <v>1015.05</v>
+      </c>
+      <c r="G78">
+        <v>12.886337890625001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79">
+        <v>14</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>940.86</v>
+      </c>
+      <c r="E79">
+        <v>950.86</v>
+      </c>
+      <c r="F79">
+        <v>944.74</v>
+      </c>
+      <c r="G79">
+        <v>12.916435546875</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>5</v>
+      </c>
+      <c r="B80">
+        <v>15</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>878.23</v>
+      </c>
+      <c r="E80">
+        <v>886.45</v>
+      </c>
+      <c r="F80">
+        <v>880.92</v>
+      </c>
+      <c r="G80">
+        <v>12.904052734375</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>5</v>
+      </c>
+      <c r="B81">
+        <v>16</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>823.62</v>
+      </c>
+      <c r="E81">
+        <v>833.23</v>
+      </c>
+      <c r="F81">
+        <v>826.79</v>
+      </c>
+      <c r="G81">
+        <v>12.918623046875</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82">
+        <v>17</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>772.52</v>
+      </c>
+      <c r="E82">
+        <v>986.91</v>
+      </c>
+      <c r="F82">
+        <v>786.07</v>
+      </c>
+      <c r="G82">
+        <v>13.050068359375</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83">
+        <v>18</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>730.96</v>
+      </c>
+      <c r="E83">
+        <v>734</v>
+      </c>
+      <c r="F83">
+        <v>731.86</v>
+      </c>
+      <c r="G83">
+        <v>12.864765625</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84">
+        <v>19</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>691.43</v>
+      </c>
+      <c r="E84">
+        <v>927.69</v>
+      </c>
+      <c r="F84">
+        <v>704.67</v>
+      </c>
+      <c r="G84">
+        <v>13.074970703125</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85">
+        <v>20</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>657.42</v>
+      </c>
+      <c r="E85">
+        <v>659.73</v>
+      </c>
+      <c r="F85">
+        <v>658.27</v>
+      </c>
+      <c r="G85">
+        <v>12.85677734375</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86">
+        <v>21</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>625.87</v>
+      </c>
+      <c r="E86">
+        <v>871.48</v>
+      </c>
+      <c r="F86">
+        <v>638.37</v>
+      </c>
+      <c r="G86">
+        <v>13.091650390625</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87">
+        <v>22</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>597.72</v>
+      </c>
+      <c r="E87">
+        <v>599.5</v>
+      </c>
+      <c r="F87">
+        <v>598.35</v>
+      </c>
+      <c r="G87">
+        <v>12.85515625</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88">
+        <v>23</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>571.77</v>
+      </c>
+      <c r="E88">
+        <v>828.66</v>
+      </c>
+      <c r="F88">
+        <v>583.62</v>
+      </c>
+      <c r="G88">
+        <v>13.108671875000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89">
+        <v>24</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>548.44000000000005</v>
+      </c>
+      <c r="E89">
+        <v>550.35</v>
+      </c>
+      <c r="F89">
+        <v>549.17999999999995</v>
+      </c>
+      <c r="G89">
+        <v>12.871455078125001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90">
+        <v>25</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>524.79999999999995</v>
+      </c>
+      <c r="E90">
+        <v>782.04</v>
+      </c>
+      <c r="F90">
+        <v>535.73</v>
+      </c>
+      <c r="G90">
+        <v>13.079453125000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91">
+        <v>26</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>506.03</v>
+      </c>
+      <c r="E91">
+        <v>507.94</v>
+      </c>
+      <c r="F91">
+        <v>506.61</v>
+      </c>
+      <c r="G91">
+        <v>12.863125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92">
+        <v>27</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>487.27</v>
+      </c>
+      <c r="E92">
+        <v>743.7</v>
+      </c>
+      <c r="F92">
+        <v>497.36</v>
+      </c>
+      <c r="G92">
+        <v>13.11408203125</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93">
+        <v>28</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>470.29</v>
+      </c>
+      <c r="E93">
+        <v>472.27</v>
+      </c>
+      <c r="F93">
+        <v>470.98</v>
+      </c>
+      <c r="G93">
+        <v>12.878291015625001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94">
+        <v>29</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>454.1</v>
+      </c>
+      <c r="E94">
+        <v>703.74</v>
+      </c>
+      <c r="F94">
+        <v>463.27</v>
+      </c>
+      <c r="G94">
+        <v>13.119970703125</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95">
+        <v>30</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>438.71</v>
+      </c>
+      <c r="E95">
+        <v>440.39</v>
+      </c>
+      <c r="F95">
+        <v>439.29</v>
+      </c>
+      <c r="G95">
+        <v>12.869873046875</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96">
+        <v>31</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>424.73</v>
+      </c>
+      <c r="E96">
+        <v>671.03</v>
+      </c>
+      <c r="F96">
+        <v>433.3</v>
+      </c>
+      <c r="G96">
+        <v>13.1175</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97">
+        <v>32</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>411.36</v>
+      </c>
+      <c r="E97">
+        <v>413.08</v>
+      </c>
+      <c r="F97">
+        <v>411.93</v>
+      </c>
+      <c r="G97">
+        <v>12.8728125</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98">
+        <v>33</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>399.51</v>
+      </c>
+      <c r="E98">
+        <v>954.58</v>
+      </c>
+      <c r="F98">
+        <v>416.8</v>
+      </c>
+      <c r="G98">
+        <v>13.432041015625</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99">
+        <v>34</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>387.65</v>
+      </c>
+      <c r="E99">
+        <v>715.82</v>
+      </c>
+      <c r="F99">
+        <v>407.37</v>
+      </c>
+      <c r="G99">
+        <v>13.525849609374999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100">
+        <v>35</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>376.72</v>
+      </c>
+      <c r="E100">
+        <v>493.31</v>
+      </c>
+      <c r="F100">
+        <v>387.08</v>
+      </c>
+      <c r="G100">
+        <v>13.23015625</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101">
+        <v>36</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>366.29</v>
+      </c>
+      <c r="E101">
+        <v>368.45</v>
+      </c>
+      <c r="F101">
+        <v>366.84</v>
+      </c>
+      <c r="G101">
+        <v>12.896601562500001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102">
+        <v>37</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>355.76</v>
+      </c>
+      <c r="E102">
+        <v>895.51</v>
+      </c>
+      <c r="F102">
+        <v>370.83</v>
+      </c>
+      <c r="G102">
+        <v>13.398974609374999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103">
+        <v>38</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>347.08</v>
+      </c>
+      <c r="E103">
+        <v>652.87</v>
+      </c>
+      <c r="F103">
+        <v>363.5</v>
+      </c>
+      <c r="G103">
+        <v>13.489384765624999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104">
+        <v>39</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <v>338.14</v>
+      </c>
+      <c r="E104">
+        <v>444.73</v>
+      </c>
+      <c r="F104">
+        <v>346.66</v>
+      </c>
+      <c r="G104">
+        <v>13.202851562499999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105">
+        <v>40</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>329.71</v>
+      </c>
+      <c r="E105">
+        <v>331.99</v>
+      </c>
+      <c r="F105">
+        <v>330.19</v>
+      </c>
+      <c r="G105">
+        <v>12.89802734375</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106">
+        <v>41</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <v>321.69</v>
+      </c>
+      <c r="E106">
+        <v>849.57</v>
+      </c>
+      <c r="F106">
+        <v>335.01</v>
+      </c>
+      <c r="G106">
+        <v>13.413330078125</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107">
+        <v>42</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>314</v>
+      </c>
+      <c r="E107">
+        <v>595.45000000000005</v>
+      </c>
+      <c r="F107">
+        <v>327.8</v>
+      </c>
+      <c r="G107">
+        <v>13.445087890625</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>5</v>
+      </c>
+      <c r="B108">
+        <v>43</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>306.73</v>
+      </c>
+      <c r="E108">
+        <v>403.31</v>
+      </c>
+      <c r="F108">
+        <v>313.85000000000002</v>
+      </c>
+      <c r="G108">
+        <v>13.17904296875</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>5</v>
+      </c>
+      <c r="B109">
+        <v>44</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>299.8</v>
+      </c>
+      <c r="E109">
+        <v>301.63</v>
+      </c>
+      <c r="F109">
+        <v>300.24</v>
+      </c>
+      <c r="G109">
+        <v>12.900917968750001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B110">
+        <v>45</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>293.18</v>
+      </c>
+      <c r="E110">
+        <v>811.12</v>
+      </c>
+      <c r="F110">
+        <v>305.11</v>
+      </c>
+      <c r="G110">
+        <v>13.408076171875001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>5</v>
+      </c>
+      <c r="B111">
+        <v>46</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>286.72000000000003</v>
+      </c>
+      <c r="E111">
+        <v>548.12</v>
+      </c>
+      <c r="F111">
+        <v>298.48</v>
+      </c>
+      <c r="G111">
+        <v>13.408251953124999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>5</v>
+      </c>
+      <c r="B112">
+        <v>47</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <v>280.64</v>
+      </c>
+      <c r="E112">
+        <v>369.88</v>
+      </c>
+      <c r="F112">
+        <v>286.67</v>
+      </c>
+      <c r="G112">
+        <v>13.157744140625001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>5</v>
+      </c>
+      <c r="B113">
+        <v>48</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>274.83</v>
+      </c>
+      <c r="E113">
+        <v>276.7</v>
+      </c>
+      <c r="F113">
+        <v>275.26</v>
+      </c>
+      <c r="G113">
+        <v>12.902607421875</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>5</v>
+      </c>
+      <c r="B114">
+        <v>49</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114">
+        <v>269.20999999999998</v>
+      </c>
+      <c r="E114">
+        <v>767.8</v>
+      </c>
+      <c r="F114">
+        <v>279.77</v>
+      </c>
+      <c r="G114">
+        <v>13.387314453125001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>5</v>
+      </c>
+      <c r="B115">
+        <v>50</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>263.86</v>
+      </c>
+      <c r="E115">
+        <v>508.01</v>
+      </c>
+      <c r="F115">
+        <v>273.95999999999998</v>
+      </c>
+      <c r="G115">
+        <v>13.37703125</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>5</v>
+      </c>
+      <c r="B116">
+        <v>51</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116">
+        <v>258.64</v>
+      </c>
+      <c r="E116">
+        <v>341.19</v>
+      </c>
+      <c r="F116">
+        <v>263.83999999999997</v>
+      </c>
+      <c r="G116">
+        <v>13.140400390625</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>5</v>
+      </c>
+      <c r="B117">
+        <v>52</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>253.7</v>
+      </c>
+      <c r="E117">
+        <v>255.46</v>
+      </c>
+      <c r="F117">
+        <v>254.09</v>
+      </c>
+      <c r="G117">
+        <v>12.9030859375</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>5</v>
+      </c>
+      <c r="B118">
+        <v>53</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118">
+        <v>248.6</v>
+      </c>
+      <c r="E118">
+        <v>727.54</v>
+      </c>
+      <c r="F118">
+        <v>258.01</v>
+      </c>
+      <c r="G118">
+        <v>13.354111328125001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>5</v>
+      </c>
+      <c r="B119">
+        <v>54</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <v>244.24</v>
+      </c>
+      <c r="E119">
+        <v>471.22</v>
+      </c>
+      <c r="F119">
+        <v>253</v>
+      </c>
+      <c r="G119">
+        <v>13.34197265625</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>5</v>
+      </c>
+      <c r="B120">
+        <v>55</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="D120">
+        <v>239.64</v>
+      </c>
+      <c r="E120">
+        <v>315.87</v>
+      </c>
+      <c r="F120">
+        <v>244.13</v>
+      </c>
+      <c r="G120">
+        <v>13.112333984375001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>5</v>
+      </c>
+      <c r="B121">
+        <v>56</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121">
+        <v>235.61</v>
+      </c>
+      <c r="E121">
+        <v>237.4</v>
+      </c>
+      <c r="F121">
+        <v>236</v>
+      </c>
+      <c r="G121">
+        <v>12.906054687499999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>5</v>
+      </c>
+      <c r="B122">
+        <v>57</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122">
+        <v>231.45</v>
+      </c>
+      <c r="E122">
+        <v>698.87</v>
+      </c>
+      <c r="F122">
+        <v>240.02</v>
+      </c>
+      <c r="G122">
+        <v>13.3605859375</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>5</v>
+      </c>
+      <c r="B123">
+        <v>58</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123">
+        <v>227.48</v>
+      </c>
+      <c r="E123">
+        <v>440.37</v>
+      </c>
+      <c r="F123">
+        <v>235.18</v>
+      </c>
+      <c r="G123">
+        <v>13.320625</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>5</v>
+      </c>
+      <c r="B124">
+        <v>59</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+      <c r="D124">
+        <v>223.59</v>
+      </c>
+      <c r="E124">
+        <v>295.16000000000003</v>
+      </c>
+      <c r="F124">
+        <v>227.58</v>
+      </c>
+      <c r="G124">
+        <v>13.112500000000001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>5</v>
+      </c>
+      <c r="B125">
+        <v>60</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125">
+        <v>219.91</v>
+      </c>
+      <c r="E125">
+        <v>221.36</v>
+      </c>
+      <c r="F125">
+        <v>220.28</v>
+      </c>
+      <c r="G125">
+        <v>12.90732421875</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>5</v>
+      </c>
+      <c r="B126">
+        <v>61</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126">
+        <v>216.27</v>
+      </c>
+      <c r="E126">
+        <v>667.92</v>
+      </c>
+      <c r="F126">
+        <v>224.03</v>
+      </c>
+      <c r="G126">
+        <v>13.3453125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>5</v>
+      </c>
+      <c r="B127">
+        <v>62</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127">
+        <v>212.55</v>
+      </c>
+      <c r="E127">
+        <v>412.5</v>
+      </c>
+      <c r="F127">
+        <v>219.34</v>
+      </c>
+      <c r="G127">
+        <v>13.2802734375</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>5</v>
+      </c>
+      <c r="B128">
+        <v>63</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128">
+        <v>209.41</v>
+      </c>
+      <c r="E128">
+        <v>277.27</v>
+      </c>
+      <c r="F128">
+        <v>212.94</v>
+      </c>
+      <c r="G128">
+        <v>13.101044921874999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>5</v>
+      </c>
+      <c r="B129">
+        <v>64</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129">
+        <v>206.15</v>
+      </c>
+      <c r="E129">
+        <v>207.66</v>
+      </c>
+      <c r="F129">
+        <v>206.5</v>
+      </c>
+      <c r="G129">
+        <v>12.906542968749999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>3</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130">
+        <v>446.71</v>
+      </c>
+      <c r="E130">
+        <v>446.71</v>
+      </c>
+      <c r="F130">
+        <v>446.71</v>
+      </c>
+      <c r="G130">
+        <v>0.43624023437499998</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>3</v>
+      </c>
+      <c r="B131">
+        <v>2</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131">
+        <v>446.62</v>
+      </c>
+      <c r="E131">
+        <v>446.71</v>
+      </c>
+      <c r="F131">
+        <v>446.66</v>
+      </c>
+      <c r="G131">
+        <v>0.87239257812500004</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>3</v>
+      </c>
+      <c r="B132">
+        <v>3</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132">
+        <v>445.98</v>
+      </c>
+      <c r="E132">
+        <v>446.26</v>
+      </c>
+      <c r="F132">
+        <v>446.11</v>
+      </c>
+      <c r="G132">
+        <v>1.3069628906249999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>3</v>
+      </c>
+      <c r="B133">
+        <v>4</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133">
+        <v>446.76</v>
+      </c>
+      <c r="E133">
+        <v>446.79</v>
+      </c>
+      <c r="F133">
+        <v>446.78</v>
+      </c>
+      <c r="G133">
+        <v>1.7452441406250001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>3</v>
+      </c>
+      <c r="B138">
+        <v>9</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="D138">
+        <v>445.83</v>
+      </c>
+      <c r="E138">
+        <v>446.42</v>
+      </c>
+      <c r="F138">
+        <v>446.28</v>
+      </c>
+      <c r="G138">
+        <v>3.9223535156249998</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>3</v>
+      </c>
+      <c r="B139">
+        <v>10</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+      <c r="D139">
+        <v>446.07</v>
+      </c>
+      <c r="E139">
+        <v>446.4</v>
+      </c>
+      <c r="F139">
+        <v>446.28</v>
+      </c>
+      <c r="G139">
+        <v>4.3582031250000002</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>3</v>
+      </c>
+      <c r="B140">
+        <v>11</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+      <c r="D140">
+        <v>446.16</v>
+      </c>
+      <c r="E140">
+        <v>446.42</v>
+      </c>
+      <c r="F140">
+        <v>446.34</v>
+      </c>
+      <c r="G140">
+        <v>4.7946679687499998</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>3</v>
+      </c>
+      <c r="B141">
+        <v>12</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141">
+        <v>446.1</v>
+      </c>
+      <c r="E141">
+        <v>446.39</v>
+      </c>
+      <c r="F141">
+        <v>446.26</v>
+      </c>
+      <c r="G141">
+        <v>5.2296289062500003</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>3</v>
+      </c>
+      <c r="B142">
+        <v>13</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="D142">
+        <v>446.07</v>
+      </c>
+      <c r="E142">
+        <v>446.38</v>
+      </c>
+      <c r="F142">
+        <v>446.27</v>
+      </c>
+      <c r="G142">
+        <v>5.6654980468750002</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>3</v>
+      </c>
+      <c r="B143">
+        <v>14</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="D143">
+        <v>446.04</v>
+      </c>
+      <c r="E143">
+        <v>446.4</v>
+      </c>
+      <c r="F143">
+        <v>446.27</v>
+      </c>
+      <c r="G143">
+        <v>6.1013085937499998</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>3</v>
+      </c>
+      <c r="B144">
+        <v>15</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+      <c r="D144">
+        <v>446.09</v>
+      </c>
+      <c r="E144">
+        <v>446.37</v>
+      </c>
+      <c r="F144">
+        <v>446.25</v>
+      </c>
+      <c r="G144">
+        <v>6.5368847656250004</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>3</v>
+      </c>
+      <c r="B145">
+        <v>16</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+      <c r="D145">
+        <v>445.96</v>
+      </c>
+      <c r="E145">
+        <v>446.34</v>
+      </c>
+      <c r="F145">
+        <v>446.19</v>
+      </c>
+      <c r="G145">
+        <v>6.9717089843749998</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>3</v>
+      </c>
+      <c r="B146">
+        <v>17</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="D146">
+        <v>400.08</v>
+      </c>
+      <c r="E146">
+        <v>445.83</v>
+      </c>
+      <c r="F146">
+        <v>403.49</v>
+      </c>
+      <c r="G146">
+        <v>6.6986425781249999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>3</v>
+      </c>
+      <c r="B147">
+        <v>18</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147">
+        <v>399.86</v>
+      </c>
+      <c r="E147">
+        <v>400.94</v>
+      </c>
+      <c r="F147">
+        <v>400.49</v>
+      </c>
+      <c r="G147">
+        <v>7.0399218750000001</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>3</v>
+      </c>
+      <c r="B148">
+        <v>19</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+      <c r="D148">
+        <v>399.96</v>
+      </c>
+      <c r="E148">
+        <v>445.8</v>
+      </c>
+      <c r="F148">
+        <v>403.19</v>
+      </c>
+      <c r="G148">
+        <v>7.4810351562499999</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>3</v>
+      </c>
+      <c r="B149">
+        <v>20</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+      <c r="D149">
+        <v>400.22</v>
+      </c>
+      <c r="E149">
+        <v>401.38</v>
+      </c>
+      <c r="F149">
+        <v>400.71</v>
+      </c>
+      <c r="G149">
+        <v>7.8262890624999999</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>3</v>
+      </c>
+      <c r="B150">
+        <v>21</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+      <c r="D150">
+        <v>400.07</v>
+      </c>
+      <c r="E150">
+        <v>445.68</v>
+      </c>
+      <c r="F150">
+        <v>402.66</v>
+      </c>
+      <c r="G150">
+        <v>8.2576855468750008</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>3</v>
+      </c>
+      <c r="B151">
+        <v>22</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+      <c r="D151">
+        <v>400.05</v>
+      </c>
+      <c r="E151">
+        <v>401.02</v>
+      </c>
+      <c r="F151">
+        <v>400.49</v>
+      </c>
+      <c r="G151">
+        <v>8.6042382812499998</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>3</v>
+      </c>
+      <c r="B152">
+        <v>23</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+      <c r="D152">
+        <v>400.21</v>
+      </c>
+      <c r="E152">
+        <v>445.75</v>
+      </c>
+      <c r="F152">
+        <v>402.44</v>
+      </c>
+      <c r="G152">
+        <v>9.0392480468750005</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>3</v>
+      </c>
+      <c r="B153">
+        <v>24</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+      <c r="D153">
+        <v>399.89</v>
+      </c>
+      <c r="E153">
+        <v>400.78</v>
+      </c>
+      <c r="F153">
+        <v>400.35</v>
+      </c>
+      <c r="G153">
+        <v>9.3831445312500001</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>3</v>
+      </c>
+      <c r="B154">
+        <v>25</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+      <c r="D154">
+        <v>399.62</v>
+      </c>
+      <c r="E154">
+        <v>445.7</v>
+      </c>
+      <c r="F154">
+        <v>401.96</v>
+      </c>
+      <c r="G154">
+        <v>9.8133691406249994</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>3</v>
+      </c>
+      <c r="B155">
+        <v>26</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+      <c r="D155">
+        <v>399.74</v>
+      </c>
+      <c r="E155">
+        <v>400.46</v>
+      </c>
+      <c r="F155">
+        <v>400.02</v>
+      </c>
+      <c r="G155">
+        <v>10.156874999999999</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>3</v>
+      </c>
+      <c r="B156">
+        <v>27</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+      <c r="D156">
+        <v>399.5</v>
+      </c>
+      <c r="E156">
+        <v>445.54</v>
+      </c>
+      <c r="F156">
+        <v>401.61</v>
+      </c>
+      <c r="G156">
+        <v>10.589404296874999</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>3</v>
+      </c>
+      <c r="B157">
+        <v>28</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+      <c r="D157">
+        <v>399.28</v>
+      </c>
+      <c r="E157">
+        <v>400.14</v>
+      </c>
+      <c r="F157">
+        <v>399.72</v>
+      </c>
+      <c r="G157">
+        <v>10.929775390625</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>3</v>
+      </c>
+      <c r="B158">
+        <v>29</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+      <c r="D158">
+        <v>398.95</v>
+      </c>
+      <c r="E158">
+        <v>445.09</v>
+      </c>
+      <c r="F158">
+        <v>400.92</v>
+      </c>
+      <c r="G158">
+        <v>11.354228515625</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>3</v>
+      </c>
+      <c r="B159">
+        <v>30</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+      <c r="D159">
+        <v>397.99</v>
+      </c>
+      <c r="E159">
+        <v>399.08</v>
+      </c>
+      <c r="F159">
+        <v>398.55</v>
+      </c>
+      <c r="G159">
+        <v>11.676220703125001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>3</v>
+      </c>
+      <c r="B160">
+        <v>31</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+      <c r="D160">
+        <v>396.75</v>
+      </c>
+      <c r="E160">
+        <v>443.48</v>
+      </c>
+      <c r="F160">
+        <v>398.6</v>
+      </c>
+      <c r="G160">
+        <v>12.067099609374999</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>3</v>
+      </c>
+      <c r="B161">
+        <v>32</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+      <c r="D161">
+        <v>393.36</v>
+      </c>
+      <c r="E161">
+        <v>394.06</v>
+      </c>
+      <c r="F161">
+        <v>393.64</v>
+      </c>
+      <c r="G161">
+        <v>12.301337890625</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>3</v>
+      </c>
+      <c r="B162">
+        <v>33</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+      <c r="D162">
+        <v>281.37</v>
+      </c>
+      <c r="E162">
+        <v>445.69</v>
+      </c>
+      <c r="F162">
+        <v>286.66000000000003</v>
+      </c>
+      <c r="G162">
+        <v>9.2380273437499998</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>3</v>
+      </c>
+      <c r="B163">
+        <v>34</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+      <c r="D163">
+        <v>281.37</v>
+      </c>
+      <c r="E163">
+        <v>399.97</v>
+      </c>
+      <c r="F163">
+        <v>288.64999999999998</v>
+      </c>
+      <c r="G163">
+        <v>9.5839648437499996</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>3</v>
+      </c>
+      <c r="B164">
+        <v>35</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+      <c r="D164">
+        <v>281.33999999999997</v>
+      </c>
+      <c r="E164">
+        <v>345.14</v>
+      </c>
+      <c r="F164">
+        <v>287.11</v>
+      </c>
+      <c r="G164">
+        <v>9.8134863281250002</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>3</v>
+      </c>
+      <c r="B165">
+        <v>36</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+      <c r="D165">
+        <v>281.33999999999997</v>
+      </c>
+      <c r="E165">
+        <v>281.77</v>
+      </c>
+      <c r="F165">
+        <v>281.69</v>
+      </c>
+      <c r="G165">
+        <v>9.9032617187500005</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>3</v>
+      </c>
+      <c r="B166">
+        <v>37</v>
+      </c>
+      <c r="C166">
+        <v>1</v>
+      </c>
+      <c r="D166">
+        <v>281.33</v>
+      </c>
+      <c r="E166">
+        <v>445.64</v>
+      </c>
+      <c r="F166">
+        <v>286.11</v>
+      </c>
+      <c r="G166">
+        <v>10.33787109375</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>3</v>
+      </c>
+      <c r="B167">
+        <v>38</v>
+      </c>
+      <c r="C167">
+        <v>1</v>
+      </c>
+      <c r="D167">
+        <v>281.33</v>
+      </c>
+      <c r="E167">
+        <v>399.81</v>
+      </c>
+      <c r="F167">
+        <v>287.88</v>
+      </c>
+      <c r="G167">
+        <v>10.683144531250001</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>3</v>
+      </c>
+      <c r="B168">
+        <v>39</v>
+      </c>
+      <c r="C168">
+        <v>1</v>
+      </c>
+      <c r="D168">
+        <v>281.3</v>
+      </c>
+      <c r="E168">
+        <v>345.02</v>
+      </c>
+      <c r="F168">
+        <v>286.52</v>
+      </c>
+      <c r="G168">
+        <v>10.91228515625</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>3</v>
+      </c>
+      <c r="B170">
+        <v>41</v>
+      </c>
+      <c r="C170">
+        <v>1</v>
+      </c>
+      <c r="D170">
+        <v>281.14999999999998</v>
+      </c>
+      <c r="E170">
+        <v>445.07</v>
+      </c>
+      <c r="F170">
+        <v>285.52</v>
+      </c>
+      <c r="G170">
+        <v>11.432080078125001</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>3</v>
+      </c>
+      <c r="B171">
+        <v>42</v>
+      </c>
+      <c r="C171">
+        <v>1</v>
+      </c>
+      <c r="D171">
+        <v>280.66000000000003</v>
+      </c>
+      <c r="E171">
+        <v>398.5</v>
+      </c>
+      <c r="F171">
+        <v>286.69</v>
+      </c>
+      <c r="G171">
+        <v>11.758583984375001</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>3</v>
+      </c>
+      <c r="B172">
+        <v>43</v>
+      </c>
+      <c r="C172">
+        <v>1</v>
+      </c>
+      <c r="D172">
+        <v>279.93</v>
+      </c>
+      <c r="E172">
+        <v>343.62</v>
+      </c>
+      <c r="F172">
+        <v>284.85000000000002</v>
+      </c>
+      <c r="G172">
+        <v>11.961386718749999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>3</v>
+      </c>
+      <c r="B173">
+        <v>44</v>
+      </c>
+      <c r="C173">
+        <v>1</v>
+      </c>
+      <c r="D173">
+        <v>278.86</v>
+      </c>
+      <c r="E173">
+        <v>279.52999999999997</v>
+      </c>
+      <c r="F173">
+        <v>279.39</v>
+      </c>
+      <c r="G173">
+        <v>12.00505859375</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>3</v>
+      </c>
+      <c r="B174">
+        <v>45</v>
+      </c>
+      <c r="C174">
+        <v>1</v>
+      </c>
+      <c r="D174">
+        <v>276.72000000000003</v>
+      </c>
+      <c r="E174">
+        <v>442.96</v>
+      </c>
+      <c r="F174">
+        <v>281.05</v>
+      </c>
+      <c r="G174">
+        <v>12.350751953125</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>3</v>
+      </c>
+      <c r="B175">
+        <v>46</v>
+      </c>
+      <c r="C175">
+        <v>1</v>
+      </c>
+      <c r="D175">
+        <v>271.60000000000002</v>
+      </c>
+      <c r="E175">
+        <v>393.67</v>
+      </c>
+      <c r="F175">
+        <v>277.60000000000002</v>
+      </c>
+      <c r="G175">
+        <v>12.470097656249999</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>3</v>
+      </c>
+      <c r="B176">
+        <v>47</v>
+      </c>
+      <c r="C176">
+        <v>1</v>
+      </c>
+      <c r="D176">
+        <v>266.14999999999998</v>
+      </c>
+      <c r="E176">
+        <v>331.98</v>
+      </c>
+      <c r="F176">
+        <v>271.01</v>
+      </c>
+      <c r="G176">
+        <v>12.439072265625001</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>3</v>
+      </c>
+      <c r="B177">
+        <v>48</v>
+      </c>
+      <c r="C177">
+        <v>1</v>
+      </c>
+      <c r="D177">
+        <v>260.58</v>
+      </c>
+      <c r="E177">
+        <v>261.49</v>
+      </c>
+      <c r="F177">
+        <v>261.27</v>
+      </c>
+      <c r="G177">
+        <v>12.246806640625</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>3</v>
+      </c>
+      <c r="B178">
+        <v>49</v>
+      </c>
+      <c r="C178">
+        <v>1</v>
+      </c>
+      <c r="D178">
+        <v>252.91</v>
+      </c>
+      <c r="E178">
+        <v>441.93</v>
+      </c>
+      <c r="F178">
+        <v>257.45</v>
+      </c>
+      <c r="G178">
+        <v>12.3192578125</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>3</v>
+      </c>
+      <c r="B179">
+        <v>50</v>
+      </c>
+      <c r="C179">
+        <v>1</v>
+      </c>
+      <c r="D179">
+        <v>245.27</v>
+      </c>
+      <c r="E179">
+        <v>388.94</v>
+      </c>
+      <c r="F179">
+        <v>251.48</v>
+      </c>
+      <c r="G179">
+        <v>12.27939453125</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>3</v>
+      </c>
+      <c r="B180">
+        <v>51</v>
+      </c>
+      <c r="C180">
+        <v>1</v>
+      </c>
+      <c r="D180">
+        <v>235.77</v>
+      </c>
+      <c r="E180">
+        <v>307.08</v>
+      </c>
+      <c r="F180">
+        <v>240.43</v>
+      </c>
+      <c r="G180">
+        <v>11.974423828125</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>3</v>
+      </c>
+      <c r="B181">
+        <v>52</v>
+      </c>
+      <c r="C181">
+        <v>1</v>
+      </c>
+      <c r="D181">
+        <v>225.34</v>
+      </c>
+      <c r="E181">
+        <v>226.54</v>
+      </c>
+      <c r="F181">
+        <v>226.27</v>
+      </c>
+      <c r="G181">
+        <v>11.490322265625</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>3</v>
+      </c>
+      <c r="B182">
+        <v>53</v>
+      </c>
+      <c r="C182">
+        <v>1</v>
+      </c>
+      <c r="D182">
+        <v>219.08</v>
+      </c>
+      <c r="E182">
+        <v>441.8</v>
+      </c>
+      <c r="F182">
+        <v>223.91</v>
+      </c>
+      <c r="G182">
+        <v>11.58892578125</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>3</v>
+      </c>
+      <c r="B183">
+        <v>54</v>
+      </c>
+      <c r="C183">
+        <v>1</v>
+      </c>
+      <c r="D183">
+        <v>213.15</v>
+      </c>
+      <c r="E183">
+        <v>385.47</v>
+      </c>
+      <c r="F183">
+        <v>219.99</v>
+      </c>
+      <c r="G183">
+        <v>11.601210937499999</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>3</v>
+      </c>
+      <c r="B184">
+        <v>55</v>
+      </c>
+      <c r="C184">
+        <v>1</v>
+      </c>
+      <c r="D184">
+        <v>205.27</v>
+      </c>
+      <c r="E184">
+        <v>284.19</v>
+      </c>
+      <c r="F184">
+        <v>209.99</v>
+      </c>
+      <c r="G184">
+        <v>11.27875</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>3</v>
+      </c>
+      <c r="B185">
+        <v>56</v>
+      </c>
+      <c r="C185">
+        <v>1</v>
+      </c>
+      <c r="D185">
+        <v>196.31</v>
+      </c>
+      <c r="E185">
+        <v>197.12</v>
+      </c>
+      <c r="F185">
+        <v>196.81</v>
+      </c>
+      <c r="G185">
+        <v>10.763251953125</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>3</v>
+      </c>
+      <c r="B187">
+        <v>58</v>
+      </c>
+      <c r="C187">
+        <v>1</v>
+      </c>
+      <c r="D187">
+        <v>187.51</v>
+      </c>
+      <c r="E187">
+        <v>383.07</v>
+      </c>
+      <c r="F187">
+        <v>194.67</v>
+      </c>
+      <c r="G187">
+        <v>11.0262890625</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>3</v>
+      </c>
+      <c r="B188">
+        <v>59</v>
+      </c>
+      <c r="C188">
+        <v>1</v>
+      </c>
+      <c r="D188">
+        <v>181.2</v>
+      </c>
+      <c r="E188">
+        <v>265.54000000000002</v>
+      </c>
+      <c r="F188">
+        <v>185.95</v>
+      </c>
+      <c r="G188">
+        <v>10.713837890624999</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>3</v>
+      </c>
+      <c r="B189">
+        <v>60</v>
+      </c>
+      <c r="C189">
+        <v>1</v>
+      </c>
+      <c r="D189">
+        <v>174.1</v>
+      </c>
+      <c r="E189">
+        <v>174.8</v>
+      </c>
+      <c r="F189">
+        <v>174.48</v>
+      </c>
+      <c r="G189">
+        <v>10.223466796875</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>3</v>
+      </c>
+      <c r="B190">
+        <v>61</v>
+      </c>
+      <c r="C190">
+        <v>1</v>
+      </c>
+      <c r="D190">
+        <v>170.73</v>
+      </c>
+      <c r="E190">
+        <v>442.05</v>
+      </c>
+      <c r="F190">
+        <v>175.6</v>
+      </c>
+      <c r="G190">
+        <v>10.460498046874999</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>3</v>
+      </c>
+      <c r="B191">
+        <v>62</v>
+      </c>
+      <c r="C191">
+        <v>1</v>
+      </c>
+      <c r="D191">
+        <v>167.08</v>
+      </c>
+      <c r="E191">
+        <v>381.2</v>
+      </c>
+      <c r="F191">
+        <v>174.56</v>
+      </c>
+      <c r="G191">
+        <v>10.56935546875</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>3</v>
+      </c>
+      <c r="B192">
+        <v>63</v>
+      </c>
+      <c r="C192">
+        <v>1</v>
+      </c>
+      <c r="D192">
+        <v>162.25</v>
+      </c>
+      <c r="E192">
+        <v>249.66</v>
+      </c>
+      <c r="F192">
+        <v>166.79</v>
+      </c>
+      <c r="G192">
+        <v>10.261269531250001</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>3</v>
+      </c>
+      <c r="B193">
+        <v>64</v>
+      </c>
+      <c r="C193">
+        <v>1</v>
+      </c>
+      <c r="D193">
+        <v>156.1</v>
+      </c>
+      <c r="E193">
+        <v>156.88</v>
+      </c>
+      <c r="F193">
+        <v>156.56</v>
+      </c>
+      <c r="G193">
+        <v>9.7849707031249995</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>4</v>
+      </c>
+      <c r="B194">
+        <v>1</v>
+      </c>
+      <c r="C194">
+        <v>1</v>
+      </c>
+      <c r="D194">
+        <v>435.11</v>
+      </c>
+      <c r="E194">
+        <v>435.11</v>
+      </c>
+      <c r="F194">
+        <v>435.11</v>
+      </c>
+      <c r="G194">
+        <v>0.42491210937500001</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>4</v>
+      </c>
+      <c r="B195">
+        <v>2</v>
+      </c>
+      <c r="C195">
+        <v>1</v>
+      </c>
+      <c r="D195">
+        <v>434.98</v>
+      </c>
+      <c r="E195">
+        <v>435.11</v>
+      </c>
+      <c r="F195">
+        <v>435.04</v>
+      </c>
+      <c r="G195">
+        <v>0.84969726562500003</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>4</v>
+      </c>
+      <c r="B196">
+        <v>3</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+      <c r="D196">
+        <v>435.01</v>
+      </c>
+      <c r="E196">
+        <v>435.07</v>
+      </c>
+      <c r="F196">
+        <v>435.05</v>
+      </c>
+      <c r="G196">
+        <v>1.2745605468750001</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>4</v>
+      </c>
+      <c r="B197">
+        <v>4</v>
+      </c>
+      <c r="C197">
+        <v>1</v>
+      </c>
+      <c r="D197">
+        <v>434.97</v>
+      </c>
+      <c r="E197">
+        <v>435.09</v>
+      </c>
+      <c r="F197">
+        <v>435.04</v>
+      </c>
+      <c r="G197">
+        <v>1.6993554687500001</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>4</v>
+      </c>
+      <c r="B198">
+        <v>5</v>
+      </c>
+      <c r="C198">
+        <v>1</v>
+      </c>
+      <c r="D198">
+        <v>435.01</v>
+      </c>
+      <c r="E198">
+        <v>435.08</v>
+      </c>
+      <c r="F198">
+        <v>435.07</v>
+      </c>
+      <c r="G198">
+        <v>2.1243457031249999</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>4</v>
+      </c>
+      <c r="B199">
+        <v>6</v>
+      </c>
+      <c r="C199">
+        <v>1</v>
+      </c>
+      <c r="D199">
+        <v>435.01</v>
+      </c>
+      <c r="E199">
+        <v>435.1</v>
+      </c>
+      <c r="F199">
+        <v>435.07</v>
+      </c>
+      <c r="G199">
+        <v>2.5492187500000001</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>4</v>
+      </c>
+      <c r="B200">
+        <v>7</v>
+      </c>
+      <c r="C200">
+        <v>1</v>
+      </c>
+      <c r="D200">
+        <v>434.89</v>
+      </c>
+      <c r="E200">
+        <v>434.98</v>
+      </c>
+      <c r="F200">
+        <v>434.94</v>
+      </c>
+      <c r="G200">
+        <v>2.9732226562499999</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>4</v>
+      </c>
+      <c r="B201">
+        <v>8</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+      <c r="D201">
+        <v>434.79</v>
+      </c>
+      <c r="E201">
+        <v>435.08</v>
+      </c>
+      <c r="F201">
+        <v>434.94</v>
+      </c>
+      <c r="G201">
+        <v>3.3979980468750002</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>4</v>
+      </c>
+      <c r="B202">
+        <v>9</v>
+      </c>
+      <c r="C202">
+        <v>1</v>
+      </c>
+      <c r="D202">
+        <v>434.76</v>
+      </c>
+      <c r="E202">
+        <v>434.93</v>
+      </c>
+      <c r="F202">
+        <v>434.91</v>
+      </c>
+      <c r="G202">
+        <v>3.8224804687499998</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>4</v>
+      </c>
+      <c r="B203">
+        <v>10</v>
+      </c>
+      <c r="C203">
+        <v>1</v>
+      </c>
+      <c r="D203">
+        <v>434.76</v>
+      </c>
+      <c r="E203">
+        <v>435.01</v>
+      </c>
+      <c r="F203">
+        <v>434.96</v>
+      </c>
+      <c r="G203">
+        <v>4.2476464843750001</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>4</v>
+      </c>
+      <c r="B204">
+        <v>11</v>
+      </c>
+      <c r="C204">
+        <v>1</v>
+      </c>
+      <c r="D204">
+        <v>434.76</v>
+      </c>
+      <c r="E204">
+        <v>435.02</v>
+      </c>
+      <c r="F204">
+        <v>434.95</v>
+      </c>
+      <c r="G204">
+        <v>4.6723046874999996</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>4</v>
+      </c>
+      <c r="B205">
+        <v>12</v>
+      </c>
+      <c r="C205">
+        <v>1</v>
+      </c>
+      <c r="D205">
+        <v>434.7</v>
+      </c>
+      <c r="E205">
+        <v>434.95</v>
+      </c>
+      <c r="F205">
+        <v>434.87</v>
+      </c>
+      <c r="G205">
+        <v>5.09615234375</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>4</v>
+      </c>
+      <c r="B206">
+        <v>13</v>
+      </c>
+      <c r="C206">
+        <v>1</v>
+      </c>
+      <c r="D206">
+        <v>434.69</v>
+      </c>
+      <c r="E206">
+        <v>434.92</v>
+      </c>
+      <c r="F206">
+        <v>434.83</v>
+      </c>
+      <c r="G206">
+        <v>5.5203320312499997</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>4</v>
+      </c>
+      <c r="B207">
+        <v>14</v>
+      </c>
+      <c r="C207">
+        <v>1</v>
+      </c>
+      <c r="D207">
+        <v>434.66</v>
+      </c>
+      <c r="E207">
+        <v>434.9</v>
+      </c>
+      <c r="F207">
+        <v>434.79</v>
+      </c>
+      <c r="G207">
+        <v>5.9444531249999999</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>4</v>
+      </c>
+      <c r="B208">
+        <v>15</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+      <c r="D208">
+        <v>434.66</v>
+      </c>
+      <c r="E208">
+        <v>434.92</v>
+      </c>
+      <c r="F208">
+        <v>434.8</v>
+      </c>
+      <c r="G208">
+        <v>6.3691699218749998</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>4</v>
+      </c>
+      <c r="B209">
+        <v>16</v>
+      </c>
+      <c r="C209">
+        <v>1</v>
+      </c>
+      <c r="D209">
+        <v>434.62</v>
+      </c>
+      <c r="E209">
+        <v>434.88</v>
+      </c>
+      <c r="F209">
+        <v>434.75</v>
+      </c>
+      <c r="G209">
+        <v>6.7929394531250002</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>4</v>
+      </c>
+      <c r="B210">
+        <v>17</v>
+      </c>
+      <c r="C210">
+        <v>1</v>
+      </c>
+      <c r="D210">
+        <v>402.2</v>
+      </c>
+      <c r="E210">
+        <v>434.42</v>
+      </c>
+      <c r="F210">
+        <v>404.44</v>
+      </c>
+      <c r="G210">
+        <v>6.7143750000000004</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>4</v>
+      </c>
+      <c r="B211">
+        <v>18</v>
+      </c>
+      <c r="C211">
+        <v>1</v>
+      </c>
+      <c r="D211">
+        <v>401.97</v>
+      </c>
+      <c r="E211">
+        <v>402.62</v>
+      </c>
+      <c r="F211">
+        <v>402.4</v>
+      </c>
+      <c r="G211">
+        <v>7.0733593749999999</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>4</v>
+      </c>
+      <c r="B212">
+        <v>19</v>
+      </c>
+      <c r="C212">
+        <v>1</v>
+      </c>
+      <c r="D212">
+        <v>402</v>
+      </c>
+      <c r="E212">
+        <v>434.4</v>
+      </c>
+      <c r="F212">
+        <v>404.05</v>
+      </c>
+      <c r="G212">
+        <v>7.4970019531250003</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>4</v>
+      </c>
+      <c r="B213">
+        <v>20</v>
+      </c>
+      <c r="C213">
+        <v>1</v>
+      </c>
+      <c r="D213">
+        <v>402.13</v>
+      </c>
+      <c r="E213">
+        <v>402.58</v>
+      </c>
+      <c r="F213">
+        <v>402.38</v>
+      </c>
+      <c r="G213">
+        <v>7.85892578125</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>4</v>
+      </c>
+      <c r="B214">
+        <v>21</v>
+      </c>
+      <c r="C214">
+        <v>1</v>
+      </c>
+      <c r="D214">
+        <v>402.02</v>
+      </c>
+      <c r="E214">
+        <v>434.37</v>
+      </c>
+      <c r="F214">
+        <v>403.86</v>
+      </c>
+      <c r="G214">
+        <v>8.2823242187500004</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>4</v>
+      </c>
+      <c r="B215">
+        <v>22</v>
+      </c>
+      <c r="C215">
+        <v>1</v>
+      </c>
+      <c r="D215">
+        <v>401.94</v>
+      </c>
+      <c r="E215">
+        <v>402.47</v>
+      </c>
+      <c r="F215">
+        <v>402.23</v>
+      </c>
+      <c r="G215">
+        <v>8.6416699218749997</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>4</v>
+      </c>
+      <c r="B216">
+        <v>23</v>
+      </c>
+      <c r="C216">
+        <v>1</v>
+      </c>
+      <c r="D216">
+        <v>401.83</v>
+      </c>
+      <c r="E216">
+        <v>434.36</v>
+      </c>
+      <c r="F216">
+        <v>403.54</v>
+      </c>
+      <c r="G216">
+        <v>9.0638671874999996</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>4</v>
+      </c>
+      <c r="B217">
+        <v>24</v>
+      </c>
+      <c r="C217">
+        <v>1</v>
+      </c>
+      <c r="D217">
+        <v>401.72</v>
+      </c>
+      <c r="E217">
+        <v>402.23</v>
+      </c>
+      <c r="F217">
+        <v>401.99</v>
+      </c>
+      <c r="G217">
+        <v>9.4217382812500006</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>4</v>
+      </c>
+      <c r="B218">
+        <v>25</v>
+      </c>
+      <c r="C218">
+        <v>1</v>
+      </c>
+      <c r="D218">
+        <v>401.64</v>
+      </c>
+      <c r="E218">
+        <v>434.24</v>
+      </c>
+      <c r="F218">
+        <v>403.28</v>
+      </c>
+      <c r="G218">
+        <v>9.8456640624999991</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>4</v>
+      </c>
+      <c r="B219">
+        <v>26</v>
+      </c>
+      <c r="C219">
+        <v>1</v>
+      </c>
+      <c r="D219">
+        <v>401.21</v>
+      </c>
+      <c r="E219">
+        <v>402.03</v>
+      </c>
+      <c r="F219">
+        <v>401.6</v>
+      </c>
+      <c r="G219">
+        <v>10.196787109375</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>4</v>
+      </c>
+      <c r="B220">
+        <v>27</v>
+      </c>
+      <c r="C220">
+        <v>1</v>
+      </c>
+      <c r="D220">
+        <v>400.46</v>
+      </c>
+      <c r="E220">
+        <v>433.57</v>
+      </c>
+      <c r="F220">
+        <v>402.06</v>
+      </c>
+      <c r="G220">
+        <v>10.601113281250001</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>4</v>
+      </c>
+      <c r="B221">
+        <v>28</v>
+      </c>
+      <c r="C221">
+        <v>1</v>
+      </c>
+      <c r="D221">
+        <v>400.58</v>
+      </c>
+      <c r="E221">
+        <v>401.13</v>
+      </c>
+      <c r="F221">
+        <v>400.82</v>
+      </c>
+      <c r="G221">
+        <v>10.959833984375001</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>4</v>
+      </c>
+      <c r="B222">
+        <v>29</v>
+      </c>
+      <c r="C222">
+        <v>1</v>
+      </c>
+      <c r="D222">
+        <v>399.92</v>
+      </c>
+      <c r="E222">
+        <v>432.6</v>
+      </c>
+      <c r="F222">
+        <v>401.38</v>
+      </c>
+      <c r="G222">
+        <v>11.36720703125</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>4</v>
+      </c>
+      <c r="B223">
+        <v>30</v>
+      </c>
+      <c r="C223">
+        <v>1</v>
+      </c>
+      <c r="D223">
+        <v>398.94</v>
+      </c>
+      <c r="E223">
+        <v>399.58</v>
+      </c>
+      <c r="F223">
+        <v>399.26</v>
+      </c>
+      <c r="G223">
+        <v>11.697128906250001</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>4</v>
+      </c>
+      <c r="B224">
+        <v>31</v>
+      </c>
+      <c r="C224">
+        <v>1</v>
+      </c>
+      <c r="D224">
+        <v>395.91</v>
+      </c>
+      <c r="E224">
+        <v>425.46</v>
+      </c>
+      <c r="F224">
+        <v>397.22</v>
+      </c>
+      <c r="G224">
+        <v>12.025253906250001</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>4</v>
+      </c>
+      <c r="B225">
+        <v>32</v>
+      </c>
+      <c r="C225">
+        <v>1</v>
+      </c>
+      <c r="D225">
+        <v>392.64</v>
+      </c>
+      <c r="E225">
+        <v>393.72</v>
+      </c>
+      <c r="F225">
+        <v>393.21</v>
+      </c>
+      <c r="G225">
+        <v>12.287841796875</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>4</v>
+      </c>
+      <c r="B226">
+        <v>33</v>
+      </c>
+      <c r="C226">
+        <v>1</v>
+      </c>
+      <c r="D226">
+        <v>281.33999999999997</v>
+      </c>
+      <c r="E226">
+        <v>434.32</v>
+      </c>
+      <c r="F226">
+        <v>286.25</v>
+      </c>
+      <c r="G226">
+        <v>9.2250097656249999</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>4</v>
+      </c>
+      <c r="B227">
+        <v>34</v>
+      </c>
+      <c r="C227">
+        <v>1</v>
+      </c>
+      <c r="D227">
+        <v>281.08</v>
+      </c>
+      <c r="E227">
+        <v>402.11</v>
+      </c>
+      <c r="F227">
+        <v>288.45999999999998</v>
+      </c>
+      <c r="G227">
+        <v>9.5778906250000002</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>4</v>
+      </c>
+      <c r="B228">
+        <v>35</v>
+      </c>
+      <c r="C228">
+        <v>1</v>
+      </c>
+      <c r="D228">
+        <v>281.32</v>
+      </c>
+      <c r="E228">
+        <v>341.88</v>
+      </c>
+      <c r="F228">
+        <v>286.77999999999997</v>
+      </c>
+      <c r="G228">
+        <v>9.8020703124999997</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>4</v>
+      </c>
+      <c r="B229">
+        <v>36</v>
+      </c>
+      <c r="C229">
+        <v>1</v>
+      </c>
+      <c r="D229">
+        <v>281.33</v>
+      </c>
+      <c r="E229">
+        <v>281.7</v>
+      </c>
+      <c r="F229">
+        <v>281.62</v>
+      </c>
+      <c r="G229">
+        <v>9.9008691406249998</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>4</v>
+      </c>
+      <c r="B230">
+        <v>37</v>
+      </c>
+      <c r="C230">
+        <v>1</v>
+      </c>
+      <c r="D230">
+        <v>281.31</v>
+      </c>
+      <c r="E230">
+        <v>434.22</v>
+      </c>
+      <c r="F230">
+        <v>285.75</v>
+      </c>
+      <c r="G230">
+        <v>10.32478515625</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>4</v>
+      </c>
+      <c r="B231">
+        <v>38</v>
+      </c>
+      <c r="C231">
+        <v>1</v>
+      </c>
+      <c r="D231">
+        <v>281.3</v>
+      </c>
+      <c r="E231">
+        <v>401.7</v>
+      </c>
+      <c r="F231">
+        <v>287.93</v>
+      </c>
+      <c r="G231">
+        <v>10.684716796875</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>4</v>
+      </c>
+      <c r="B232">
+        <v>39</v>
+      </c>
+      <c r="C232">
+        <v>1</v>
+      </c>
+      <c r="D232">
+        <v>281.27</v>
+      </c>
+      <c r="E232">
+        <v>341.7</v>
+      </c>
+      <c r="F232">
+        <v>286.20999999999998</v>
+      </c>
+      <c r="G232">
+        <v>10.900400390625</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>4</v>
+      </c>
+      <c r="B233">
+        <v>40</v>
+      </c>
+      <c r="C233">
+        <v>1</v>
+      </c>
+      <c r="D233">
+        <v>281.27</v>
+      </c>
+      <c r="E233">
+        <v>281.68</v>
+      </c>
+      <c r="F233">
+        <v>281.58999999999997</v>
+      </c>
+      <c r="G233">
+        <v>10.999482421874999</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>4</v>
+      </c>
+      <c r="B234">
+        <v>41</v>
+      </c>
+      <c r="C234">
+        <v>1</v>
+      </c>
+      <c r="D234">
+        <v>281.14999999999998</v>
+      </c>
+      <c r="E234">
+        <v>432.81</v>
+      </c>
+      <c r="F234">
+        <v>285.18</v>
+      </c>
+      <c r="G234">
+        <v>11.418183593749999</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>4</v>
+      </c>
+      <c r="B235">
+        <v>42</v>
+      </c>
+      <c r="C235">
+        <v>1</v>
+      </c>
+      <c r="D235">
+        <v>280.74</v>
+      </c>
+      <c r="E235">
+        <v>399.07</v>
+      </c>
+      <c r="F235">
+        <v>286.73</v>
+      </c>
+      <c r="G235">
+        <v>11.760380859374999</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>4</v>
+      </c>
+      <c r="B236">
+        <v>43</v>
+      </c>
+      <c r="C236">
+        <v>1</v>
+      </c>
+      <c r="D236">
+        <v>279.97000000000003</v>
+      </c>
+      <c r="E236">
+        <v>340.22</v>
+      </c>
+      <c r="F236">
+        <v>284.56</v>
+      </c>
+      <c r="G236">
+        <v>11.949267578124999</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>4</v>
+      </c>
+      <c r="B237">
+        <v>44</v>
+      </c>
+      <c r="C237">
+        <v>1</v>
+      </c>
+      <c r="D237">
+        <v>279.48</v>
+      </c>
+      <c r="E237">
+        <v>280.07</v>
+      </c>
+      <c r="F237">
+        <v>279.94</v>
+      </c>
+      <c r="G237">
+        <v>12.028857421874999</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>4</v>
+      </c>
+      <c r="B238">
+        <v>45</v>
+      </c>
+      <c r="C238">
+        <v>1</v>
+      </c>
+      <c r="D238">
+        <v>277.08999999999997</v>
+      </c>
+      <c r="E238">
+        <v>415.4</v>
+      </c>
+      <c r="F238">
+        <v>280.7</v>
+      </c>
+      <c r="G238">
+        <v>12.335253906249999</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>4</v>
+      </c>
+      <c r="B239">
+        <v>46</v>
+      </c>
+      <c r="C239">
+        <v>1</v>
+      </c>
+      <c r="D239">
+        <v>272.52</v>
+      </c>
+      <c r="E239">
+        <v>392.71</v>
+      </c>
+      <c r="F239">
+        <v>278.29000000000002</v>
+      </c>
+      <c r="G239">
+        <v>12.501250000000001</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>4</v>
+      </c>
+      <c r="B240">
+        <v>47</v>
+      </c>
+      <c r="C240">
+        <v>1</v>
+      </c>
+      <c r="D240">
+        <v>266.83999999999997</v>
+      </c>
+      <c r="E240">
+        <v>330.63</v>
+      </c>
+      <c r="F240">
+        <v>271.5</v>
+      </c>
+      <c r="G240">
+        <v>12.461562499999999</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>4</v>
+      </c>
+      <c r="B241">
+        <v>48</v>
+      </c>
+      <c r="C241">
+        <v>1</v>
+      </c>
+      <c r="D241">
+        <v>261.52</v>
+      </c>
+      <c r="E241">
+        <v>262.54000000000002</v>
+      </c>
+      <c r="F241">
+        <v>262.35000000000002</v>
+      </c>
+      <c r="G241">
+        <v>12.297509765625</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>4</v>
+      </c>
+      <c r="B242">
+        <v>49</v>
+      </c>
+      <c r="C242">
+        <v>1</v>
+      </c>
+      <c r="D242">
+        <v>253.99</v>
+      </c>
+      <c r="E242">
+        <v>374.52</v>
+      </c>
+      <c r="F242">
+        <v>257.04000000000002</v>
+      </c>
+      <c r="G242">
+        <v>12.299990234375</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>4</v>
+      </c>
+      <c r="B243">
+        <v>50</v>
+      </c>
+      <c r="C243">
+        <v>1</v>
+      </c>
+      <c r="D243">
+        <v>245.81</v>
+      </c>
+      <c r="E243">
+        <v>387.34</v>
+      </c>
+      <c r="F243">
+        <v>252.05</v>
+      </c>
+      <c r="G243">
+        <v>12.306923828125001</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>4</v>
+      </c>
+      <c r="B244">
+        <v>51</v>
+      </c>
+      <c r="C244">
+        <v>1</v>
+      </c>
+      <c r="D244">
+        <v>236.9</v>
+      </c>
+      <c r="E244">
+        <v>309.11</v>
+      </c>
+      <c r="F244">
+        <v>242.02</v>
+      </c>
+      <c r="G244">
+        <v>12.053544921875</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>4</v>
+      </c>
+      <c r="B245">
+        <v>52</v>
+      </c>
+      <c r="C245">
+        <v>1</v>
+      </c>
+      <c r="D245">
+        <v>226.47</v>
+      </c>
+      <c r="E245">
+        <v>227.64</v>
+      </c>
+      <c r="F245">
+        <v>227.33</v>
+      </c>
+      <c r="G245">
+        <v>11.54435546875</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>4</v>
+      </c>
+      <c r="B246">
+        <v>53</v>
+      </c>
+      <c r="C246">
+        <v>1</v>
+      </c>
+      <c r="D246">
+        <v>220.47</v>
+      </c>
+      <c r="E246">
+        <v>355.7</v>
+      </c>
+      <c r="F246">
+        <v>223.56</v>
+      </c>
+      <c r="G246">
+        <v>11.570761718749999</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>4</v>
+      </c>
+      <c r="B247">
+        <v>54</v>
+      </c>
+      <c r="C247">
+        <v>1</v>
+      </c>
+      <c r="D247">
+        <v>214.81</v>
+      </c>
+      <c r="E247">
+        <v>385.63</v>
+      </c>
+      <c r="F247">
+        <v>221.67</v>
+      </c>
+      <c r="G247">
+        <v>11.689580078124999</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>4</v>
+      </c>
+      <c r="B248">
+        <v>55</v>
+      </c>
+      <c r="C248">
+        <v>1</v>
+      </c>
+      <c r="D248">
+        <v>207.04</v>
+      </c>
+      <c r="E248">
+        <v>287.86</v>
+      </c>
+      <c r="F248">
+        <v>211.8</v>
+      </c>
+      <c r="G248">
+        <v>11.375712890625</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>4</v>
+      </c>
+      <c r="B249">
+        <v>56</v>
+      </c>
+      <c r="C249">
+        <v>1</v>
+      </c>
+      <c r="D249">
+        <v>197.65</v>
+      </c>
+      <c r="E249">
+        <v>198.9</v>
+      </c>
+      <c r="F249">
+        <v>198.41</v>
+      </c>
+      <c r="G249">
+        <v>10.85056640625</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>4</v>
+      </c>
+      <c r="B250">
+        <v>57</v>
+      </c>
+      <c r="C250">
+        <v>1</v>
+      </c>
+      <c r="D250">
+        <v>193.06</v>
+      </c>
+      <c r="E250">
+        <v>355.56</v>
+      </c>
+      <c r="F250">
+        <v>196.45</v>
+      </c>
+      <c r="G250">
+        <v>10.935283203125</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>4</v>
+      </c>
+      <c r="B251">
+        <v>58</v>
+      </c>
+      <c r="C251">
+        <v>1</v>
+      </c>
+      <c r="D251">
+        <v>188.85</v>
+      </c>
+      <c r="E251">
+        <v>384.59</v>
+      </c>
+      <c r="F251">
+        <v>196.17</v>
+      </c>
+      <c r="G251">
+        <v>11.11125</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>4</v>
+      </c>
+      <c r="B252">
+        <v>59</v>
+      </c>
+      <c r="C252">
+        <v>1</v>
+      </c>
+      <c r="D252">
+        <v>183.04</v>
+      </c>
+      <c r="E252">
+        <v>270.54000000000002</v>
+      </c>
+      <c r="F252">
+        <v>187.91</v>
+      </c>
+      <c r="G252">
+        <v>10.827080078125</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>4</v>
+      </c>
+      <c r="B253">
+        <v>60</v>
+      </c>
+      <c r="C253">
+        <v>1</v>
+      </c>
+      <c r="D253">
+        <v>175.56</v>
+      </c>
+      <c r="E253">
+        <v>176.5</v>
+      </c>
+      <c r="F253">
+        <v>176.07</v>
+      </c>
+      <c r="G253">
+        <v>10.3165625</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>4</v>
+      </c>
+      <c r="B254">
+        <v>61</v>
+      </c>
+      <c r="C254">
+        <v>1</v>
+      </c>
+      <c r="D254">
+        <v>172.12</v>
+      </c>
+      <c r="E254">
+        <v>359.32</v>
+      </c>
+      <c r="F254">
+        <v>175.69</v>
+      </c>
+      <c r="G254">
+        <v>10.465791015624999</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>4</v>
+      </c>
+      <c r="B255">
+        <v>62</v>
+      </c>
+      <c r="C255">
+        <v>1</v>
+      </c>
+      <c r="D255">
+        <v>168.74</v>
+      </c>
+      <c r="E255">
+        <v>383.51</v>
+      </c>
+      <c r="F255">
+        <v>176.24</v>
+      </c>
+      <c r="G255">
+        <v>10.670478515625</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>4</v>
+      </c>
+      <c r="B256">
+        <v>63</v>
+      </c>
+      <c r="C256">
+        <v>1</v>
+      </c>
+      <c r="D256">
+        <v>164.03</v>
+      </c>
+      <c r="E256">
+        <v>254.83</v>
+      </c>
+      <c r="F256">
+        <v>168.83</v>
+      </c>
+      <c r="G256">
+        <v>10.387255859374999</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>4</v>
+      </c>
+      <c r="B257">
+        <v>64</v>
+      </c>
+      <c r="C257">
+        <v>1</v>
+      </c>
+      <c r="D257">
+        <v>157.77000000000001</v>
+      </c>
+      <c r="E257">
+        <v>158.65</v>
+      </c>
+      <c r="F257">
+        <v>158.13</v>
+      </c>
+      <c r="G257">
+        <v>9.8832031249999996</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>